--- a/src/main/resources/static/templates/课程表模板.xlsx
+++ b/src/main/resources/static/templates/课程表模板.xlsx
@@ -4,20 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330"/>
+    <workbookView windowWidth="20070" windowHeight="7710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="全部班级课表" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="说明" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
   <si>
     <t>　　　　　　　班级
 　星期　节次</t>
@@ -38,7 +36,112 @@
     <t>第一节</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>音乐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体_GB2312"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+谢红娟</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美术</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体_GB2312"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+董国俊</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体_GB2312"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+于金霞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>化政地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体_GB2312"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+蒋腊梅/陶德华/周丽萍</t>
+    </r>
+  </si>
+  <si>
     <t>第二节</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>化生政地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体_GB2312"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+钱刘谢王李</t>
+    </r>
   </si>
   <si>
     <t>第三节</t>
@@ -76,18 +179,27 @@
   <si>
     <t>星期五</t>
   </si>
+  <si>
+    <t>1 第一行的班级为当前学年学期，当前年级的所有班级</t>
+  </si>
+  <si>
+    <t>2 课表有缓存，每天晚上11点会更新数据</t>
+  </si>
+  <si>
+    <t>3 单元格格式在全部班级课表sheet内有范例</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,20 +212,6 @@
       <color theme="1"/>
       <name val="黑体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -130,17 +228,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,11 +258,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,6 +281,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -205,13 +302,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,7 +323,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,6 +357,12 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="楷体_GB2312"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -255,7 +373,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,25 +487,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,13 +523,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,121 +547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,7 +558,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -591,9 +709,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -617,6 +733,34 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
@@ -720,15 +864,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,11 +883,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -772,41 +946,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -829,149 +973,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1020,8 +1164,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1032,10 +1179,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1044,15 +1206,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1060,6 +1213,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1069,12 +1225,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1161,7 +1323,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="646430" cy="355600"/>
+          <a:ext cx="704850" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1210,7 +1372,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1292860" cy="355600"/>
+          <a:ext cx="1409700" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1530,13 +1692,13 @@
   <sheetPr/>
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="4" width="4.62727272727273" customWidth="1"/>
+    <col min="1" max="4" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1557,7 +1719,7 @@
       <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="24"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="6"/>
@@ -1569,7 +1731,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="10"/>
       <c r="I2" s="9"/>
-      <c r="J2" s="25"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="11" t="s">
@@ -1580,1309 +1742,1321 @@
         <v>5</v>
       </c>
       <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="26"/>
+      <c r="E3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="26"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="23"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="17"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="10"/>
       <c r="C5" s="13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="26"/>
+      <c r="E5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="17"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="10"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="26"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="17"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="26"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="26"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="17"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="10"/>
       <c r="C9" s="13" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="26"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="32"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="17"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="26"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="32"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="17"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="10"/>
       <c r="C11" s="13" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D11" s="14"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="27"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="17"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="27"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="17"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="10"/>
       <c r="C13" s="13" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="26"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="32"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="17"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="26"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="32"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="17"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="10"/>
       <c r="C15" s="13" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="26"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="32"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="17"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="26"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="32"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="17"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="10"/>
       <c r="C17" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="26"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="32"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="17"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="26"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="32"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="17"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="10"/>
       <c r="C19" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="26"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="32"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="17"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="10"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="26"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="32"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="17"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="10"/>
       <c r="C21" s="13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D21" s="14"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="27"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="33"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="27"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="33"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="26"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="32"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="17"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="10"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="26"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="17"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="10"/>
       <c r="C25" s="13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="26"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="32"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="17"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="10"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="26"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="32"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="17"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="10"/>
       <c r="C27" s="13" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D27" s="14"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="26"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="32"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="17"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="10"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="26"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="32"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="17"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="10"/>
       <c r="C29" s="13" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="26"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="32"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="17"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="10"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="26"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="32"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="17"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="10"/>
       <c r="C31" s="13" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D31" s="14"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="27"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="33"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="17"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="10"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="27"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="33"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="17"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="10"/>
       <c r="C33" s="13" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" s="14"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="26"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="32"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="17"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="10"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="26"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="32"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="17"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="10"/>
       <c r="C35" s="13" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D35" s="14"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="26"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="32"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="17"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="10"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="26"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="32"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="17"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="10"/>
       <c r="C37" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D37" s="14"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="26"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="32"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="17"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="10"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="26"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="32"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="17"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="10"/>
       <c r="C39" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D39" s="14"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="26"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="32"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="17"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="10"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="26"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="32"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="17"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="10"/>
       <c r="C41" s="13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D41" s="14"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="27"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="33"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="22"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="27"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="33"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="14"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="26"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="17"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="10"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="26"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="32"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="17"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="10"/>
       <c r="C45" s="13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D45" s="14"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="26"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="32"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="17"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="10"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="26"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="32"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="17"/>
+      <c r="A47" s="18"/>
       <c r="B47" s="10"/>
       <c r="C47" s="13" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D47" s="14"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="26"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="32"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="17"/>
+      <c r="A48" s="18"/>
       <c r="B48" s="10"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="26"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="32"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="17"/>
+      <c r="A49" s="18"/>
       <c r="B49" s="10"/>
       <c r="C49" s="13" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D49" s="14"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="26"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="32"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="17"/>
+      <c r="A50" s="18"/>
       <c r="B50" s="10"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="26"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="32"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="17"/>
+      <c r="A51" s="18"/>
       <c r="B51" s="10"/>
       <c r="C51" s="13" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D51" s="14"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="27"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="33"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="17"/>
+      <c r="A52" s="18"/>
       <c r="B52" s="10"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="27"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="33"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="17"/>
+      <c r="A53" s="18"/>
       <c r="B53" s="10"/>
       <c r="C53" s="13" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D53" s="14"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="27"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="33"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="17"/>
+      <c r="A54" s="18"/>
       <c r="B54" s="10"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="27"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="33"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="17"/>
+      <c r="A55" s="18"/>
       <c r="B55" s="10"/>
       <c r="C55" s="13" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D55" s="14"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="26"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="32"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="17"/>
+      <c r="A56" s="18"/>
       <c r="B56" s="10"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="26"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="32"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="17"/>
+      <c r="A57" s="18"/>
       <c r="B57" s="10"/>
       <c r="C57" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D57" s="14"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="26"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="32"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="17"/>
+      <c r="A58" s="18"/>
       <c r="B58" s="10"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="26"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="32"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="17"/>
+      <c r="A59" s="18"/>
       <c r="B59" s="10"/>
       <c r="C59" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D59" s="14"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="27"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="33"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="17"/>
+      <c r="A60" s="18"/>
       <c r="B60" s="10"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="27"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="33"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="17"/>
+      <c r="A61" s="18"/>
       <c r="B61" s="10"/>
       <c r="C61" s="13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D61" s="14"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="27"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="33"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="22"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="27"/>
+      <c r="A62" s="28"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="33"/>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B63" s="12"/>
       <c r="C63" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D63" s="14"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="26"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="32"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="17"/>
+      <c r="A64" s="18"/>
       <c r="B64" s="10"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="26"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="32"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="17"/>
+      <c r="A65" s="18"/>
       <c r="B65" s="10"/>
       <c r="C65" s="13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D65" s="14"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="26"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="32"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="17"/>
+      <c r="A66" s="18"/>
       <c r="B66" s="10"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="26"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="32"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="17"/>
+      <c r="A67" s="18"/>
       <c r="B67" s="10"/>
       <c r="C67" s="13" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D67" s="14"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="26"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="32"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="17"/>
+      <c r="A68" s="18"/>
       <c r="B68" s="10"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="26"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="32"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="17"/>
+      <c r="A69" s="18"/>
       <c r="B69" s="10"/>
       <c r="C69" s="13" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D69" s="14"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="26"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="32"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="17"/>
+      <c r="A70" s="18"/>
       <c r="B70" s="10"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="26"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="32"/>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="17"/>
+      <c r="A71" s="18"/>
       <c r="B71" s="10"/>
       <c r="C71" s="13" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D71" s="14"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="21"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="27"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="33"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="17"/>
+      <c r="A72" s="18"/>
       <c r="B72" s="10"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
-      <c r="I72" s="21"/>
-      <c r="J72" s="27"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="33"/>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="17"/>
+      <c r="A73" s="18"/>
       <c r="B73" s="10"/>
       <c r="C73" s="13" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D73" s="14"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="26"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="32"/>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="17"/>
+      <c r="A74" s="18"/>
       <c r="B74" s="10"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="26"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="32"/>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="17"/>
+      <c r="A75" s="18"/>
       <c r="B75" s="10"/>
       <c r="C75" s="13" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D75" s="14"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="26"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="32"/>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="17"/>
+      <c r="A76" s="18"/>
       <c r="B76" s="10"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
-      <c r="J76" s="26"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="32"/>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="17"/>
+      <c r="A77" s="18"/>
       <c r="B77" s="10"/>
       <c r="C77" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D77" s="14"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="26"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="32"/>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="17"/>
+      <c r="A78" s="18"/>
       <c r="B78" s="10"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="26"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="32"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="17"/>
+      <c r="A79" s="18"/>
       <c r="B79" s="10"/>
       <c r="C79" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D79" s="14"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="26"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="32"/>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="17"/>
+      <c r="A80" s="18"/>
       <c r="B80" s="10"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="16"/>
-      <c r="J80" s="26"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="32"/>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="17"/>
+      <c r="A81" s="18"/>
       <c r="B81" s="10"/>
       <c r="C81" s="13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D81" s="14"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="26"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="24"/>
+      <c r="J81" s="32"/>
     </row>
     <row r="82" spans="1:10">
-      <c r="A82" s="22"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="16"/>
-      <c r="J82" s="26"/>
+      <c r="A82" s="28"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="32"/>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B83" s="12"/>
       <c r="C83" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D83" s="14"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="26"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="32"/>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="17"/>
+      <c r="A84" s="18"/>
       <c r="B84" s="10"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16"/>
-      <c r="J84" s="26"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="32"/>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="17"/>
+      <c r="A85" s="18"/>
       <c r="B85" s="10"/>
       <c r="C85" s="13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D85" s="14"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="26"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="32"/>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="17"/>
+      <c r="A86" s="18"/>
       <c r="B86" s="10"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="16"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="16"/>
-      <c r="J86" s="26"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="32"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="17"/>
+      <c r="A87" s="18"/>
       <c r="B87" s="10"/>
       <c r="C87" s="13" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D87" s="14"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="16"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="26"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="24"/>
+      <c r="J87" s="32"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="17"/>
+      <c r="A88" s="18"/>
       <c r="B88" s="10"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16"/>
-      <c r="J88" s="26"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="32"/>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="17"/>
+      <c r="A89" s="18"/>
       <c r="B89" s="10"/>
       <c r="C89" s="13" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D89" s="14"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="26"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="25"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="32"/>
     </row>
     <row r="90" spans="1:10">
-      <c r="A90" s="17"/>
+      <c r="A90" s="18"/>
       <c r="B90" s="10"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16"/>
-      <c r="J90" s="26"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="25"/>
+      <c r="I90" s="25"/>
+      <c r="J90" s="32"/>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="17"/>
+      <c r="A91" s="18"/>
       <c r="B91" s="10"/>
       <c r="C91" s="13" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D91" s="14"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="26"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="25"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="32"/>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" s="17"/>
+      <c r="A92" s="18"/>
       <c r="B92" s="10"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="16"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="16"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="16"/>
-      <c r="J92" s="26"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="25"/>
+      <c r="I92" s="25"/>
+      <c r="J92" s="32"/>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" s="17"/>
+      <c r="A93" s="18"/>
       <c r="B93" s="10"/>
       <c r="C93" s="13" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D93" s="14"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="16"/>
-      <c r="G93" s="15"/>
-      <c r="H93" s="16"/>
-      <c r="I93" s="20"/>
-      <c r="J93" s="27"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="26"/>
+      <c r="J93" s="33"/>
     </row>
     <row r="94" spans="1:10">
-      <c r="A94" s="17"/>
+      <c r="A94" s="18"/>
       <c r="B94" s="10"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="16"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="21"/>
-      <c r="J94" s="27"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="27"/>
+      <c r="J94" s="33"/>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95" s="17"/>
+      <c r="A95" s="18"/>
       <c r="B95" s="10"/>
       <c r="C95" s="13" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D95" s="14"/>
-      <c r="E95" s="15"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="15"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="26"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="25"/>
+      <c r="I95" s="24"/>
+      <c r="J95" s="32"/>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="17"/>
+      <c r="A96" s="18"/>
       <c r="B96" s="10"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="16"/>
-      <c r="I96" s="16"/>
-      <c r="J96" s="26"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="32"/>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" s="17"/>
+      <c r="A97" s="18"/>
       <c r="B97" s="10"/>
       <c r="C97" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D97" s="14"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="16"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="16"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="26"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="24"/>
+      <c r="J97" s="32"/>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="17"/>
+      <c r="A98" s="18"/>
       <c r="B98" s="10"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="19"/>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="16"/>
-      <c r="J98" s="26"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="25"/>
+      <c r="I98" s="25"/>
+      <c r="J98" s="32"/>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="17"/>
+      <c r="A99" s="18"/>
       <c r="B99" s="10"/>
       <c r="C99" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D99" s="14"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="15"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="26"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="25"/>
+      <c r="I99" s="24"/>
+      <c r="J99" s="32"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="17"/>
+      <c r="A100" s="18"/>
       <c r="B100" s="10"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="16"/>
-      <c r="F100" s="16"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="16"/>
-      <c r="J100" s="26"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="25"/>
+      <c r="H100" s="25"/>
+      <c r="I100" s="25"/>
+      <c r="J100" s="32"/>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101" s="17"/>
+      <c r="A101" s="18"/>
       <c r="B101" s="10"/>
       <c r="C101" s="13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D101" s="14"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="15"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="20"/>
-      <c r="J101" s="27"/>
-    </row>
-    <row r="102" spans="1:10">
-      <c r="A102" s="28"/>
-      <c r="B102" s="29"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="31"/>
-      <c r="E102" s="32"/>
-      <c r="F102" s="32"/>
-      <c r="G102" s="32"/>
-      <c r="H102" s="32"/>
-      <c r="I102" s="33"/>
-      <c r="J102" s="34"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="25"/>
+      <c r="I101" s="26"/>
+      <c r="J101" s="33"/>
+    </row>
+    <row r="102" ht="14.25" spans="1:10">
+      <c r="A102" s="34"/>
+      <c r="B102" s="35"/>
+      <c r="C102" s="36"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="38"/>
+      <c r="F102" s="38"/>
+      <c r="G102" s="38"/>
+      <c r="H102" s="38"/>
+      <c r="I102" s="39"/>
+      <c r="J102" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="209">
+  <mergeCells count="210">
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="C7:D8"/>
     <mergeCell ref="E7:F8"/>
     <mergeCell ref="G7:H8"/>
@@ -3080,7 +3254,6 @@
     <mergeCell ref="G5:H6"/>
     <mergeCell ref="I5:J6"/>
     <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E3:F4"/>
     <mergeCell ref="G3:H4"/>
     <mergeCell ref="I3:J4"/>
     <mergeCell ref="A43:B62"/>
@@ -3103,46 +3276,33 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="88.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
